--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1575.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1575.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.056924222539846</v>
+        <v>0.4027742743492126</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.4522325396537781</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.7532025575637817</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.560185194015503</v>
       </c>
       <c r="E1">
-        <v>1.055618665271972</v>
+        <v>2.850537061691284</v>
       </c>
     </row>
   </sheetData>
